--- a/data/trans_orig/P38C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P38C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{079C68C7-7406-45D3-8A5E-4A2B2C2ED33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A9E56C9-2678-4D12-8E2F-358DA5289DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E02D6FA5-2E6F-4629-AC1A-BB51E19C838B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9BE834C7-3C9D-4339-8302-3078FB989AFD}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>88,42%</t>
   </si>
   <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
   </si>
   <si>
     <t>90,93%</t>
   </si>
   <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>11,58%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
   </si>
   <si>
     <t>9,07%</t>
   </si>
   <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>79,19%</t>
   </si>
   <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
   </si>
   <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
   </si>
   <si>
     <t>82,43%</t>
   </si>
   <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
   </si>
   <si>
     <t>20,81%</t>
   </si>
   <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
   </si>
   <si>
     <t>17,57%</t>
   </si>
   <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,109 +195,109 @@
     <t>80,48%</t>
   </si>
   <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
   </si>
   <si>
     <t>83,57%</t>
   </si>
   <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
   </si>
   <si>
     <t>82,03%</t>
   </si>
   <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
   </si>
   <si>
     <t>19,52%</t>
   </si>
   <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
   </si>
   <si>
     <t>16,43%</t>
   </si>
   <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
   </si>
   <si>
     <t>81,47%</t>
   </si>
   <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
   </si>
   <si>
     <t>87,42%</t>
   </si>
   <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
   </si>
   <si>
     <t>84,52%</t>
   </si>
   <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
   </si>
   <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
   </si>
   <si>
     <t>12,58%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
   </si>
   <si>
     <t>15,48%</t>
   </si>
   <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -309,109 +309,109 @@
     <t>88,88%</t>
   </si>
   <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
   </si>
   <si>
     <t>92,69%</t>
   </si>
   <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>91,19%</t>
   </si>
   <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
+    <t>89,22%</t>
   </si>
   <si>
     <t>11,12%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
   </si>
   <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
+    <t>10,78%</t>
   </si>
   <si>
     <t>75,06%</t>
   </si>
   <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
   </si>
   <si>
     <t>83,36%</t>
   </si>
   <si>
-    <t>81,01%</t>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>79,29%</t>
   </si>
   <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
   </si>
   <si>
     <t>24,94%</t>
   </si>
   <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
   </si>
   <si>
     <t>16,64%</t>
   </si>
   <si>
-    <t>18,99%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
   </si>
   <si>
     <t>20,71%</t>
   </si>
   <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
   </si>
   <si>
     <t>82,65%</t>
   </si>
   <si>
-    <t>78,62%</t>
+    <t>79,07%</t>
   </si>
   <si>
     <t>85,77%</t>
@@ -420,19 +420,16 @@
     <t>88,41%</t>
   </si>
   <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
+    <t>90,69%</t>
   </si>
   <si>
     <t>85,61%</t>
   </si>
   <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
   </si>
   <si>
     <t>17,35%</t>
@@ -441,73 +438,76 @@
     <t>14,23%</t>
   </si>
   <si>
-    <t>21,38%</t>
+    <t>20,93%</t>
   </si>
   <si>
     <t>11,59%</t>
   </si>
   <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
+    <t>9,31%</t>
   </si>
   <si>
     <t>14,39%</t>
   </si>
   <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
   </si>
   <si>
     <t>78,79%</t>
   </si>
   <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
   </si>
   <si>
     <t>86,36%</t>
   </si>
   <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
   </si>
   <si>
     <t>82,8%</t>
   </si>
   <si>
-    <t>84,06%</t>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
   </si>
   <si>
     <t>21,21%</t>
   </si>
   <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
   </si>
   <si>
     <t>13,64%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
   </si>
   <si>
     <t>17,2%</t>
   </si>
   <si>
-    <t>15,94%</t>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
   </si>
 </sst>
 </file>
@@ -919,7 +919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D370CD4C-A14C-4182-95B3-78CCB5FFE30E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEA56C4-E121-4422-8116-D177C118C412}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1670,7 +1670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91556D6-AC1E-4F84-A3FC-2B05B4C417F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7DD52B-6413-4055-8021-AFF66ECDB8BE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1830,7 +1830,7 @@
         <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1845,13 +1845,13 @@
         <v>60224</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>70</v>
@@ -1860,13 +1860,13 @@
         <v>61016</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>138</v>
@@ -1875,13 +1875,13 @@
         <v>121240</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1949,28 +1949,28 @@
         <v>1621769</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>2555</v>
       </c>
       <c r="I7" s="7">
-        <v>1868647</v>
+        <v>1868648</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="M7" s="7">
         <v>4206</v>
@@ -1979,13 +1979,13 @@
         <v>3490417</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,13 +2000,13 @@
         <v>538791</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>361</v>
@@ -2015,10 +2015,10 @@
         <v>373125</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>119</v>
@@ -2063,7 +2063,7 @@
         <v>2916</v>
       </c>
       <c r="I9" s="7">
-        <v>2241772</v>
+        <v>2241773</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2122,10 +2122,10 @@
         <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>1507</v>
@@ -2134,13 +2134,13 @@
         <v>1187397</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,13 +2155,13 @@
         <v>116789</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>85</v>
@@ -2170,13 +2170,13 @@
         <v>82740</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="M11" s="7">
         <v>178</v>
@@ -2185,13 +2185,13 @@
         <v>199529</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,13 +2259,13 @@
         <v>2659429</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>4829</v>
@@ -2274,13 +2274,13 @@
         <v>3273947</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>7691</v>
@@ -2289,13 +2289,13 @@
         <v>5933376</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,13 +2310,13 @@
         <v>715804</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>516</v>
@@ -2325,13 +2325,13 @@
         <v>516881</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M14" s="7">
         <v>1017</v>
@@ -2340,13 +2340,13 @@
         <v>1232685</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P38C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P38C-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A9E56C9-2678-4D12-8E2F-358DA5289DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D0EA229-F4B3-478C-B41C-54D2DEABEF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9BE834C7-3C9D-4339-8302-3078FB989AFD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{927F8C9F-8E24-4AF6-9A56-71C3AFB0E65B}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="157">
-  <si>
-    <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2015 (Tasa respuesta: 99,27%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="155">
+  <si>
+    <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2016 (Tasa respuesta: 99,27%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,7 +75,7 @@
     <t>88,42%</t>
   </si>
   <si>
-    <t>85,94%</t>
+    <t>85,93%</t>
   </si>
   <si>
     <t>90,64%</t>
@@ -84,19 +84,19 @@
     <t>92,83%</t>
   </si>
   <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
   </si>
   <si>
     <t>90,93%</t>
   </si>
   <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,25 +108,25 @@
     <t>9,36%</t>
   </si>
   <si>
-    <t>14,06%</t>
+    <t>14,07%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
   </si>
   <si>
     <t>9,07%</t>
   </si>
   <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,49 @@
     <t>79,19%</t>
   </si>
   <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
   </si>
   <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
   </si>
   <si>
     <t>82,43%</t>
   </si>
   <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
+    <t>83,65%</t>
   </si>
   <si>
     <t>20,81%</t>
   </si>
   <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
   </si>
   <si>
     <t>17,57%</t>
   </si>
   <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
+    <t>16,35%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,73 +189,73 @@
     <t>80,48%</t>
   </si>
   <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
   </si>
   <si>
     <t>83,57%</t>
   </si>
   <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
   </si>
   <si>
     <t>82,03%</t>
   </si>
   <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
   </si>
   <si>
     <t>19,52%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
   </si>
   <si>
     <t>16,43%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>81,47%</t>
   </si>
   <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
   </si>
   <si>
     <t>87,42%</t>
   </si>
   <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
   </si>
   <si>
     <t>84,52%</t>
@@ -270,31 +264,31 @@
     <t>83,62%</t>
   </si>
   <si>
-    <t>85,45%</t>
+    <t>85,46%</t>
   </si>
   <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
   </si>
   <si>
     <t>12,58%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
   </si>
   <si>
     <t>15,48%</t>
   </si>
   <si>
-    <t>14,55%</t>
+    <t>14,54%</t>
   </si>
   <si>
     <t>16,38%</t>
@@ -919,7 +913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEA56C4-E121-4422-8116-D177C118C412}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5941CEB-8F74-4C29-B04D-FB7DF312E159}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1231,10 +1225,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1249,13 +1243,13 @@
         <v>426203</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>280</v>
@@ -1264,13 +1258,13 @@
         <v>281265</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>677</v>
@@ -1279,13 +1273,13 @@
         <v>707468</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1341,7 +1335,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1353,13 +1347,13 @@
         <v>437795</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>435</v>
@@ -1368,13 +1362,13 @@
         <v>456344</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>835</v>
@@ -1383,13 +1377,13 @@
         <v>894139</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1404,13 +1398,13 @@
         <v>106180</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>88</v>
@@ -1419,13 +1413,13 @@
         <v>89739</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>187</v>
@@ -1434,13 +1428,13 @@
         <v>195919</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1508,13 +1502,13 @@
         <v>2722195</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>2873</v>
@@ -1523,13 +1517,13 @@
         <v>3073267</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>5476</v>
@@ -1538,13 +1532,13 @@
         <v>5795461</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1559,13 +1553,13 @@
         <v>619105</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>436</v>
@@ -1574,13 +1568,13 @@
         <v>442067</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1017</v>
@@ -1589,13 +1583,13 @@
         <v>1061173</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1651,7 +1645,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7DD52B-6413-4055-8021-AFF66ECDB8BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00764E07-F4E6-4A3F-AF26-371B477DD237}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1687,7 +1681,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1794,13 +1788,13 @@
         <v>481410</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>1355</v>
@@ -1809,13 +1803,13 @@
         <v>774153</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>1978</v>
@@ -1824,13 +1818,13 @@
         <v>1255562</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1845,13 +1839,13 @@
         <v>60224</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H5" s="7">
         <v>70</v>
@@ -1860,13 +1854,13 @@
         <v>61016</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M5" s="7">
         <v>138</v>
@@ -1875,13 +1869,13 @@
         <v>121240</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1949,13 +1943,13 @@
         <v>1621769</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>2555</v>
@@ -1964,13 +1958,13 @@
         <v>1868648</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>4206</v>
@@ -1979,13 +1973,13 @@
         <v>3490417</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,13 +1994,13 @@
         <v>538791</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>361</v>
@@ -2015,13 +2009,13 @@
         <v>373125</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>701</v>
@@ -2030,13 +2024,13 @@
         <v>911916</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,7 +2086,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2104,13 +2098,13 @@
         <v>556250</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>919</v>
@@ -2119,13 +2113,13 @@
         <v>631146</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M10" s="7">
         <v>1507</v>
@@ -2134,13 +2128,13 @@
         <v>1187397</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,13 +2149,13 @@
         <v>116789</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H11" s="7">
         <v>85</v>
@@ -2170,13 +2164,13 @@
         <v>82740</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M11" s="7">
         <v>178</v>
@@ -2185,13 +2179,13 @@
         <v>199529</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,13 +2253,13 @@
         <v>2659429</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>4829</v>
@@ -2274,13 +2268,13 @@
         <v>3273947</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>7691</v>
@@ -2289,13 +2283,13 @@
         <v>5933376</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,13 +2304,13 @@
         <v>715804</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>516</v>
@@ -2325,13 +2319,13 @@
         <v>516881</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>1017</v>
@@ -2340,13 +2334,13 @@
         <v>1232685</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,7 +2396,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P38C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P38C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D0EA229-F4B3-478C-B41C-54D2DEABEF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AFAB87F-38B6-4120-857F-60D1775BD5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{927F8C9F-8E24-4AF6-9A56-71C3AFB0E65B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CD545359-D2B8-4017-8A08-AED3ED45E487}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="157">
   <si>
     <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2016 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -69,34 +69,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>88,42%</t>
   </si>
   <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
   </si>
   <si>
     <t>90,93%</t>
   </si>
   <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>11,58%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
   </si>
   <si>
     <t>9,07%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,49 +138,55 @@
     <t>79,19%</t>
   </si>
   <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
   </si>
   <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
   </si>
   <si>
     <t>82,43%</t>
   </si>
   <si>
-    <t>83,65%</t>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
   </si>
   <si>
     <t>20,81%</t>
   </si>
   <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
   </si>
   <si>
     <t>17,57%</t>
   </si>
   <si>
-    <t>16,35%</t>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -189,109 +195,109 @@
     <t>80,48%</t>
   </si>
   <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
   </si>
   <si>
     <t>83,57%</t>
   </si>
   <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>82,03%</t>
   </si>
   <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
   </si>
   <si>
     <t>19,52%</t>
   </si>
   <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
   </si>
   <si>
     <t>16,43%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
   </si>
   <si>
     <t>81,47%</t>
   </si>
   <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
   </si>
   <si>
     <t>87,42%</t>
   </si>
   <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
   </si>
   <si>
     <t>84,52%</t>
   </si>
   <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
   </si>
   <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
   </si>
   <si>
     <t>12,58%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
   </si>
   <si>
     <t>15,48%</t>
   </si>
   <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -303,109 +309,109 @@
     <t>88,88%</t>
   </si>
   <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
   </si>
   <si>
     <t>92,69%</t>
   </si>
   <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
   </si>
   <si>
     <t>91,19%</t>
   </si>
   <si>
-    <t>89,22%</t>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>11,12%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
   </si>
   <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>10,78%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
   </si>
   <si>
     <t>75,06%</t>
   </si>
   <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
   </si>
   <si>
     <t>83,36%</t>
   </si>
   <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>81,01%</t>
   </si>
   <si>
     <t>79,29%</t>
   </si>
   <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
   </si>
   <si>
     <t>24,94%</t>
   </si>
   <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
   </si>
   <si>
     <t>16,64%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
+    <t>18,99%</t>
   </si>
   <si>
     <t>20,71%</t>
   </si>
   <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
   </si>
   <si>
     <t>82,65%</t>
   </si>
   <si>
-    <t>79,07%</t>
+    <t>78,62%</t>
   </si>
   <si>
     <t>85,77%</t>
@@ -414,16 +420,19 @@
     <t>88,41%</t>
   </si>
   <si>
-    <t>90,69%</t>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
   </si>
   <si>
     <t>85,61%</t>
   </si>
   <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
   </si>
   <si>
     <t>17,35%</t>
@@ -432,76 +441,73 @@
     <t>14,23%</t>
   </si>
   <si>
-    <t>20,93%</t>
+    <t>21,38%</t>
   </si>
   <si>
     <t>11,59%</t>
   </si>
   <si>
-    <t>9,31%</t>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
   </si>
   <si>
     <t>14,39%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
   </si>
   <si>
     <t>78,79%</t>
   </si>
   <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
   </si>
   <si>
     <t>86,36%</t>
   </si>
   <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
   </si>
   <si>
     <t>82,8%</t>
   </si>
   <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
+    <t>84,06%</t>
   </si>
   <si>
     <t>21,21%</t>
   </si>
   <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
   </si>
   <si>
     <t>13,64%</t>
   </si>
   <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
   </si>
   <si>
     <t>17,2%</t>
   </si>
   <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
+    <t>15,94%</t>
   </si>
 </sst>
 </file>
@@ -913,7 +919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5941CEB-8F74-4C29-B04D-FB7DF312E159}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6DF8A5-16E5-4717-9087-9C8F03D591A7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1225,10 +1231,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1243,13 +1249,13 @@
         <v>426203</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>280</v>
@@ -1258,13 +1264,13 @@
         <v>281265</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>677</v>
@@ -1273,13 +1279,13 @@
         <v>707468</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1335,7 +1341,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1347,13 +1353,13 @@
         <v>437795</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>435</v>
@@ -1362,13 +1368,13 @@
         <v>456344</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>835</v>
@@ -1377,13 +1383,13 @@
         <v>894139</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1398,13 +1404,13 @@
         <v>106180</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>88</v>
@@ -1413,13 +1419,13 @@
         <v>89739</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>187</v>
@@ -1428,13 +1434,13 @@
         <v>195919</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1502,13 +1508,13 @@
         <v>2722195</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>2873</v>
@@ -1517,13 +1523,13 @@
         <v>3073267</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>5476</v>
@@ -1532,13 +1538,13 @@
         <v>5795461</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1553,13 +1559,13 @@
         <v>619105</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>436</v>
@@ -1568,13 +1574,13 @@
         <v>442067</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1017</v>
@@ -1583,13 +1589,13 @@
         <v>1061173</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1645,7 +1651,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1664,7 +1670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00764E07-F4E6-4A3F-AF26-371B477DD237}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B8E3C9-666B-4890-873B-18919371FDB2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1681,7 +1687,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1788,13 +1794,13 @@
         <v>481410</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>1355</v>
@@ -1803,13 +1809,13 @@
         <v>774153</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>1978</v>
@@ -1818,13 +1824,13 @@
         <v>1255562</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,13 +1845,13 @@
         <v>60224</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>70</v>
@@ -1854,13 +1860,13 @@
         <v>61016</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>138</v>
@@ -1869,13 +1875,13 @@
         <v>121240</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,28 +1949,28 @@
         <v>1621769</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>2555</v>
       </c>
       <c r="I7" s="7">
-        <v>1868648</v>
+        <v>1868647</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="M7" s="7">
         <v>4206</v>
@@ -1973,13 +1979,13 @@
         <v>3490417</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,13 +2000,13 @@
         <v>538791</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>361</v>
@@ -2009,13 +2015,13 @@
         <v>373125</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>701</v>
@@ -2024,13 +2030,13 @@
         <v>911916</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2057,7 +2063,7 @@
         <v>2916</v>
       </c>
       <c r="I9" s="7">
-        <v>2241773</v>
+        <v>2241772</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2086,7 +2092,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2098,13 +2104,13 @@
         <v>556250</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>919</v>
@@ -2113,13 +2119,13 @@
         <v>631146</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>1507</v>
@@ -2128,13 +2134,13 @@
         <v>1187397</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,13 +2155,13 @@
         <v>116789</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>85</v>
@@ -2164,13 +2170,13 @@
         <v>82740</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>178</v>
@@ -2179,13 +2185,13 @@
         <v>199529</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,13 +2259,13 @@
         <v>2659429</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>4829</v>
@@ -2268,13 +2274,13 @@
         <v>3273947</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>7691</v>
@@ -2283,13 +2289,13 @@
         <v>5933376</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2310,13 @@
         <v>715804</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>516</v>
@@ -2319,13 +2325,13 @@
         <v>516881</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7">
         <v>1017</v>
@@ -2334,13 +2340,13 @@
         <v>1232685</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,7 +2402,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P38C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P38C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AFAB87F-38B6-4120-857F-60D1775BD5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{383C3971-70B6-46BA-8930-8DC4BCCD71A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CD545359-D2B8-4017-8A08-AED3ED45E487}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{717BD7C5-6C60-454C-AC59-605C207C34B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
   <si>
     <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2016 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -306,208 +306,214 @@
     <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
   </si>
 </sst>
 </file>
@@ -919,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6DF8A5-16E5-4717-9087-9C8F03D591A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18CF5151-87DC-44BD-A1CC-1D8D1A0B77AD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1070,7 +1076,7 @@
         <v>1492</v>
       </c>
       <c r="N4" s="7">
-        <v>1581972</v>
+        <v>1581971</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1172,7 +1178,7 @@
         <v>1645</v>
       </c>
       <c r="N6" s="7">
-        <v>1739758</v>
+        <v>1739757</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1670,7 +1676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B8E3C9-666B-4890-873B-18919371FDB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD9D114-124F-4B95-833F-8627C68A8BB4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1791,7 +1797,7 @@
         <v>623</v>
       </c>
       <c r="D4" s="7">
-        <v>481410</v>
+        <v>459392</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>89</v>
@@ -1806,7 +1812,7 @@
         <v>1355</v>
       </c>
       <c r="I4" s="7">
-        <v>774153</v>
+        <v>703160</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -1821,7 +1827,7 @@
         <v>1978</v>
       </c>
       <c r="N4" s="7">
-        <v>1255562</v>
+        <v>1162553</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>95</v>
@@ -1842,7 +1848,7 @@
         <v>68</v>
       </c>
       <c r="D5" s="7">
-        <v>60224</v>
+        <v>55546</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>98</v>
@@ -1857,7 +1863,7 @@
         <v>70</v>
       </c>
       <c r="I5" s="7">
-        <v>61016</v>
+        <v>51620</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -1872,7 +1878,7 @@
         <v>138</v>
       </c>
       <c r="N5" s="7">
-        <v>121240</v>
+        <v>107166</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>104</v>
@@ -1893,7 +1899,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1908,7 +1914,7 @@
         <v>1425</v>
       </c>
       <c r="I6" s="7">
-        <v>835169</v>
+        <v>754780</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1923,7 +1929,7 @@
         <v>2116</v>
       </c>
       <c r="N6" s="7">
-        <v>1376802</v>
+        <v>1269719</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1946,7 +1952,7 @@
         <v>1651</v>
       </c>
       <c r="D7" s="7">
-        <v>1621769</v>
+        <v>1583209</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>107</v>
@@ -1961,7 +1967,7 @@
         <v>2555</v>
       </c>
       <c r="I7" s="7">
-        <v>1868647</v>
+        <v>1856529</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>110</v>
@@ -1970,22 +1976,22 @@
         <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>4206</v>
       </c>
       <c r="N7" s="7">
-        <v>3490417</v>
+        <v>3439739</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,46 +2003,46 @@
         <v>340</v>
       </c>
       <c r="D8" s="7">
-        <v>538791</v>
+        <v>705623</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>361</v>
       </c>
       <c r="I8" s="7">
-        <v>373125</v>
+        <v>374429</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>701</v>
       </c>
       <c r="N8" s="7">
-        <v>911916</v>
+        <v>1080051</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2048,7 +2054,7 @@
         <v>1991</v>
       </c>
       <c r="D9" s="7">
-        <v>2160560</v>
+        <v>2288832</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2063,7 +2069,7 @@
         <v>2916</v>
       </c>
       <c r="I9" s="7">
-        <v>2241772</v>
+        <v>2230958</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2078,7 +2084,7 @@
         <v>4907</v>
       </c>
       <c r="N9" s="7">
-        <v>4402333</v>
+        <v>4519790</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2101,46 +2107,46 @@
         <v>588</v>
       </c>
       <c r="D10" s="7">
-        <v>556250</v>
+        <v>533745</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="H10" s="7">
         <v>919</v>
       </c>
       <c r="I10" s="7">
-        <v>631146</v>
+        <v>586721</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M10" s="7">
         <v>1507</v>
       </c>
       <c r="N10" s="7">
-        <v>1187397</v>
+        <v>1120466</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2152,13 +2158,13 @@
         <v>93</v>
       </c>
       <c r="D11" s="7">
-        <v>116789</v>
+        <v>112878</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>134</v>
@@ -2167,7 +2173,7 @@
         <v>85</v>
       </c>
       <c r="I11" s="7">
-        <v>82740</v>
+        <v>73742</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>135</v>
@@ -2182,7 +2188,7 @@
         <v>178</v>
       </c>
       <c r="N11" s="7">
-        <v>199529</v>
+        <v>186620</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>138</v>
@@ -2203,7 +2209,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2218,7 +2224,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2233,7 +2239,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2256,7 +2262,7 @@
         <v>2862</v>
       </c>
       <c r="D13" s="7">
-        <v>2659429</v>
+        <v>2576347</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>141</v>
@@ -2271,7 +2277,7 @@
         <v>4829</v>
       </c>
       <c r="I13" s="7">
-        <v>3273947</v>
+        <v>3146410</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>144</v>
@@ -2286,16 +2292,16 @@
         <v>7691</v>
       </c>
       <c r="N13" s="7">
-        <v>5933376</v>
+        <v>5722758</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,46 +2313,46 @@
         <v>501</v>
       </c>
       <c r="D14" s="7">
-        <v>715804</v>
+        <v>874046</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>516</v>
       </c>
       <c r="I14" s="7">
-        <v>516881</v>
+        <v>499791</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>1017</v>
       </c>
       <c r="N14" s="7">
-        <v>1232685</v>
+        <v>1373837</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,7 +2364,7 @@
         <v>3363</v>
       </c>
       <c r="D15" s="7">
-        <v>3375233</v>
+        <v>3450393</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2373,7 +2379,7 @@
         <v>5345</v>
       </c>
       <c r="I15" s="7">
-        <v>3790828</v>
+        <v>3646201</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2388,7 +2394,7 @@
         <v>8708</v>
       </c>
       <c r="N15" s="7">
-        <v>7166061</v>
+        <v>7096595</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
